--- a/public/mock_data/MOCK_DATA_5.xlsx
+++ b/public/mock_data/MOCK_DATA_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dinocajic/www/package-laravel-excel/public/mock_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E27DDD-B698-4D40-A601-626FC6A0F87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591FAD79-C518-2D47-96F0-F0545A0513B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-31700" yWindow="7820" windowWidth="22680" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="81">
   <si>
     <t>first_name</t>
   </si>
@@ -270,16 +270,13 @@
     <t>vbLu7gnonq</t>
   </si>
   <si>
-    <t>Amira</t>
-  </si>
-  <si>
-    <t>Cajic</t>
-  </si>
-  <si>
     <t>Frank</t>
   </si>
   <si>
     <t>Jackson</t>
+  </si>
+  <si>
+    <t>Jester</t>
   </si>
 </sst>
 </file>
@@ -1150,10 +1147,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -1424,7 +1421,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1454,7 +1451,7 @@
         <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" t="str">
         <f>SUBSTITUTE(user_data_1!C2, "@", "+1@")</f>
